--- a/RequirementAnalysist_ATM_NurAli.xlsx
+++ b/RequirementAnalysist_ATM_NurAli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\24_PTS_ATM_NurAli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802EDB6-52BA-4FDD-8911-882811086546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698323D-9098-4B72-8E63-71C8AD65D048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68A05D91-0035-4393-B9AC-2B120ECA6CA5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>5 table</t>
   </si>
@@ -50,56 +50,29 @@
     <t>withdraws</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Liyy</t>
-  </si>
-  <si>
-    <t>Nurr</t>
-  </si>
-  <si>
-    <t>ali@atm</t>
-  </si>
-  <si>
-    <t>liyy@atm</t>
-  </si>
-  <si>
-    <t>nurr@atm</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>aliatm</t>
-  </si>
-  <si>
-    <t>liyyatm</t>
-  </si>
-  <si>
-    <t>nurratm</t>
+    <t>Alur</t>
+  </si>
+  <si>
+    <t>ada 5 table yaitu User,Payment,Transfer,withdraws, dan stock</t>
+  </si>
+  <si>
+    <t>User bisa melakukan cek saldo, transfer, payment,dan tarik tunai</t>
+  </si>
+  <si>
+    <t>untuk melakukan transaksi user harus memasukkan username dan password</t>
+  </si>
+  <si>
+    <t>jika user tidak ditemukan, tolak permintaan</t>
+  </si>
+  <si>
+    <t>jika user ditemukan lanjutkan permintaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,22 +81,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -145,34 +104,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,135 +425,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F054EE3-A121-42CD-A9EC-3918877B1E04}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{4C223B35-A461-4CA9-96D2-5D83E76EE151}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{34B4901F-B5D3-48C3-B732-D8F670211A13}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{EE8DAB79-39D2-4369-BE32-E79F81A92EDB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>